--- a/stuup_api/src/main/resources/template/volunteer.xlsx
+++ b/stuup_api/src/main/resources/template/volunteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideProject\poho\stuup_admin\stuup_api\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD5EFB-BEAD-430B-9458-4E92550D2EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F69F650-C1F3-4798-92AD-12641E048A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,44 +27,44 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>姓名</t>
+    <t>学籍号</t>
     <rPh sb="0" eb="1">
       <t>ban'ji'ming'c</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
+    <t>基地/项目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地/项目地址</t>
     <rPh sb="0" eb="1">
       <t>ban zhu rengong hao</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户类别</t>
+    <t>子项目</t>
     <rPh sb="0" eb="1">
       <t>xi'bu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>文化程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在部门</t>
+    <t>岗位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务总时间长(学时)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚填理由</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,8 +153,9 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,21 +441,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +483,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
